--- a/biology/Médecine/Médaille_internationale_de_chirurgie/Médaille_internationale_de_chirurgie.xlsx
+++ b/biology/Médecine/Médaille_internationale_de_chirurgie/Médaille_internationale_de_chirurgie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_internationale_de_chirurgie</t>
+          <t>Médaille_internationale_de_chirurgie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Médaille internationale de chirurgie (Fondation Lannelongue) a été créée en 1911 par Odilon Lannelongue en souvenir de son épouse Marie Lannelongue, née Cibiel, veuve du vicomte Pierre de Rémusat, infirmière dévouée aux blessés de la guerre de 1870.
 Elle est décernée tous les cinq ans par l'Académie nationale de chirurgie. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_internationale_de_chirurgie</t>
+          <t>Médaille_internationale_de_chirurgie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Récipiendaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste :
 2012 : Alain Carpentier (Paris)
 2007 : Maurice E. Müller (Berne)
 2002 : Christian Cabrol (Paris)
